--- a/app/backend/template/example.xlsx
+++ b/app/backend/template/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNTT-30\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\repo-code\app\backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D050A623-E928-492C-9563-32476A63DD9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE41104-7AAA-4348-B645-8450C17B67A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Tên Công Ty</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>datlv@bhhk.com.vn</t>
+  </si>
+  <si>
+    <t>BỆNH VIỆN QUỐC TẾ HẠNH PHÚC2</t>
+  </si>
+  <si>
+    <t>Lê Văn A</t>
   </si>
 </sst>
 </file>
@@ -204,12 +210,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,16 +224,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -530,7 +533,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,30 +547,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -577,9 +580,9 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -591,7 +594,7 @@
       <c r="C3" s="4">
         <v>28</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="5">
@@ -603,19 +606,35 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1985</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -625,7 +644,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -638,8 +657,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{CE39F5FD-B45D-4C9C-8C85-D53F3F074557}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{4E582C94-3A00-4365-BFA7-AEB74142B7A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/app/backend/template/example.xlsx
+++ b/app/backend/template/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\repo-code\app\backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE41104-7AAA-4348-B645-8450C17B67A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8BB0D4-BC1A-4245-B53B-5510D06C40F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2130" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,19 @@
     <t>08/01/2020-07/01/2021</t>
   </si>
   <si>
-    <t>BỆNH VIỆN QUỐC TẾ HẠNH PHÚC</t>
-  </si>
-  <si>
-    <t>Lê Viết Đạt</t>
-  </si>
-  <si>
     <t>datlv@bhhk.com.vn</t>
   </si>
   <si>
-    <t>BỆNH VIỆN QUỐC TẾ HẠNH PHÚC2</t>
-  </si>
-  <si>
     <t>Lê Văn A</t>
+  </si>
+  <si>
+    <t>1BỆNH VIỆN QUỐC TẾ HẠNH PHÚC</t>
+  </si>
+  <si>
+    <t>2BỆNH VIỆN QUỐC TẾ HẠNH PHÚC</t>
+  </si>
+  <si>
+    <t>Lê Văn B</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +247,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -533,7 +542,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +552,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,28 +595,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>1985</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -618,22 +627,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="4">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>1985</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>13</v>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,11 +664,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{CE39F5FD-B45D-4C9C-8C85-D53F3F074557}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{4E582C94-3A00-4365-BFA7-AEB74142B7A4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/backend/template/example.xlsx
+++ b/app/backend/template/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\repo-code\app\backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8BB0D4-BC1A-4245-B53B-5510D06C40F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550BC069-3A8A-40B3-ABCF-BE914CB865E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2130" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,19 +236,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -256,6 +244,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -542,7 +542,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,34 +552,34 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,9 +589,9 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -609,13 +609,13 @@
       <c r="E3" s="5">
         <v>1922</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -635,13 +635,13 @@
       <c r="E4" s="5">
         <v>1933</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/app/backend/template/example.xlsx
+++ b/app/backend/template/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\repo-code\app\backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550BC069-3A8A-40B3-ABCF-BE914CB865E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D16C8-F7FD-4ED1-AC86-5D089A001BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Tên Công Ty</t>
   </si>
@@ -66,20 +66,32 @@
     <t>Lê Văn A</t>
   </si>
   <si>
-    <t>1BỆNH VIỆN QUỐC TẾ HẠNH PHÚC</t>
-  </si>
-  <si>
-    <t>2BỆNH VIỆN QUỐC TẾ HẠNH PHÚC</t>
-  </si>
-  <si>
     <t>Lê Văn B</t>
+  </si>
+  <si>
+    <t>CÔNG TY A</t>
+  </si>
+  <si>
+    <t>CÔNG TY C</t>
+  </si>
+  <si>
+    <t>CÔNG TY D</t>
+  </si>
+  <si>
+    <t>CÔNG TY E</t>
+  </si>
+  <si>
+    <t>Lê Văn D</t>
+  </si>
+  <si>
+    <t>Lê Văn E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +125,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -129,14 +134,6 @@
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,14 +200,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,23 +214,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,8 +248,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -539,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,34 +541,34 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,71 +578,117 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
         <v>1922</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1933</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1994</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
